--- a/REGULAR/RODRIQUZ, GREGORIO.xlsx
+++ b/REGULAR/RODRIQUZ, GREGORIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\CENRO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5353E092-695D-4D53-A8E7-08471A4AA40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26ED442E-E6C1-4867-869E-082CBDC77EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,6 +235,12 @@
   </si>
   <si>
     <t>8/30-31/2022</t>
+  </si>
+  <si>
+    <t>3/16-17,20/2023</t>
+  </si>
+  <si>
+    <t>CENRO</t>
   </si>
 </sst>
 </file>
@@ -1266,9 +1264,9 @@
   <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="4308" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
+      <pane ySplit="4308" topLeftCell="A79" activePane="bottomLeft"/>
+      <selection activeCell="B3" sqref="B3:C3"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1336,7 +1334,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="52" t="s">
+        <v>68</v>
+      </c>
       <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -1427,7 +1427,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>270.66899999999998</v>
+        <v>271.41899999999998</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1437,7 +1437,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>388.78300000000002</v>
+        <v>392.53300000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2921,15 +2921,19 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>44927</v>
+      </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -2937,15 +2941,19 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>44958</v>
+      </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G82" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
@@ -2953,23 +2961,35 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="39"/>
+      <c r="A83" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D83" s="39">
+        <v>3</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="20" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45017</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -2985,7 +3005,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45047</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -3001,7 +3023,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45078</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -3017,7 +3041,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45108</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -3033,7 +3059,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45139</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -3049,7 +3077,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45170</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -3065,7 +3095,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45200</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -3081,7 +3113,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45231</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -3097,7 +3131,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45261</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -3113,7 +3149,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45292</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3129,7 +3167,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45323</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -3145,7 +3185,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45352</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -3161,7 +3203,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45383</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3177,7 +3221,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45413</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3193,7 +3239,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45444</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3209,7 +3257,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45474</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3225,7 +3275,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45505</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3241,7 +3293,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45536</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3257,7 +3311,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45566</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3273,7 +3329,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45597</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3289,7 +3347,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45627</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3305,7 +3365,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45658</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3321,7 +3383,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45689</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3337,7 +3401,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45717</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3353,7 +3419,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45748</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3369,7 +3437,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45778</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3385,7 +3455,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45809</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3401,7 +3473,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45839</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
